--- a/vocabulary/3.0/Karuta_voc_ver3.xlsx
+++ b/vocabulary/3.0/Karuta_voc_ver3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="105" windowWidth="17055" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="810" yWindow="105" windowWidth="17055" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="かるた語彙独自定義" sheetId="4" r:id="rId1"/>
@@ -956,6 +956,691 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
+    <t>ver.3.0</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>dc:description</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>dc:description</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>和歌の全文です。表記は競技かるたの公式版によりました。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>和歌のテキスト翻刻</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>&lt;rdf:Property rdf:about="https://github.com/tnanako/karutalod/textOfYomi"&gt;</t>
+  </si>
+  <si>
+    <t>rdf:resource="https://github.com/tnanako/karutalod/ReadOut"</t>
+  </si>
+  <si>
+    <t>&lt;rdf:Property rdf:about="https://github.com/tnanako/karutalod/imageOfYomi"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;rdf:Property rdf:about="https://github.com/tnanako/karutalod/textOfTori"&gt;</t>
+  </si>
+  <si>
+    <t>rdf:resource="https://github.com/tnanako/karutalod/PickUPi"</t>
+  </si>
+  <si>
+    <t>rdf:resource="https://github.com/tnanako/karutalod/PickUP"</t>
+  </si>
+  <si>
+    <t>&lt;rdf:Property rdf:about="https://github.com/tnanako/karutalod/historicalTranscription"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;rdf:Property rdf:about="https://github.com/tnanako/karutalod/transcription"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;rdf:Property rdf:about="https://github.com/tnanako/karutalod/roamanTranscription"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;rdf:Property rdf:about="https://github.com/tnanako/karutalod/uniqueSyllable"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;rdf:Property rdf:about="https://github.com/tnanako/karutalod/firstHalf"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;rdf:Property rdf:about="https://github.com/tnanako/karutalod/transcriptionOfFirstHalf"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;rdf:Property rdf:about="https://github.com/tnanako/karutalod/secondHalf"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;rdf:Property rdf:about="https://github.com/tnanako/karutalod/transcriptionOfSecondHalf"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;rdf:Property rdf:about="https://github.com/tnanako/karutalod/bonze"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;rdf:Property rdf:about="https://github.com/tnanako/karutalod/initial"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;rdf:Property rdf:about="https://github.com/tnanako/karutalod/annotate"&gt;</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>かるたの解説・注釈をテキストで記入しています</t>
+    <rPh sb="4" eb="6">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チュウシャク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>和歌のテキスト（全文）</t>
+    <rPh sb="0" eb="2">
+      <t>ワカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゼンブン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>IIIF対応のため、小倉百人一首の語彙（赤字部分）を修正</t>
+    <rPh sb="4" eb="6">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オグラ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒャクニン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イッシュ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ゴイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>多言語化に伴うdc:descriptionの定義の変更により、小倉百人一首・郷土かるたの語彙（青地部分）を修正</t>
+    <rPh sb="0" eb="4">
+      <t>タゲンゴカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>オグラ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒャクニン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イッシュ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キョウド</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ゴイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>アオジ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>郷土かるたの語彙作成</t>
+    <rPh sb="0" eb="2">
+      <t>キョウド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゴイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>bf:translation</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>翻訳へのリンク</t>
+    <rPh sb="0" eb="2">
+      <t>ホンヤク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>翻訳された和歌のリソースへのリンクです</t>
+    <rPh sb="0" eb="2">
+      <t>ホンヤク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ワカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>解説</t>
+    <rPh sb="0" eb="2">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>解説・注釈のテキストを記入しています</t>
+    <rPh sb="0" eb="2">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チュウシャク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>上の句</t>
+    <rPh sb="0" eb="1">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>下の句</t>
+    <rPh sb="0" eb="1">
+      <t>シモ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>和歌リソース</t>
+    <rPh sb="0" eb="2">
+      <t>ワカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>歌人</t>
+    <rPh sb="0" eb="2">
+      <t>カジン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>歌人へのリンク</t>
+    <rPh sb="0" eb="2">
+      <t>カジン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>karuta:romanTranscription</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>karuta:firstHalf</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>karuta:secondHalf</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>bibo:translationOf</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>dc:creator</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>dcterms:creator</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>bibo:translator</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>dcterms:contributor</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>dc:source</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>小倉百人一首の翻訳オープンデータリスト</t>
+    <rPh sb="7" eb="9">
+      <t>ホンヤク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>bibo:translator</t>
+  </si>
+  <si>
+    <t>dcterms:contributor</t>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>撰者</t>
+    <rPh sb="0" eb="2">
+      <t>センジャ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>翻訳者</t>
+    <rPh sb="0" eb="3">
+      <t>ホンヤクシャ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>出版社</t>
+    <rPh sb="0" eb="3">
+      <t>シュッパンシャ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>出版年</t>
+    <rPh sb="0" eb="2">
+      <t>シュッパン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CiNiiBooksの書誌</t>
+    <rPh sb="11" eb="13">
+      <t>ショシ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>収録している和歌へのリンク</t>
+    <rPh sb="0" eb="2">
+      <t>シュウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ワカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>言語と翻訳者を記入しています</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ホンヤクシャ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>出版社を記入しています</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>出版年をリテラルで記入しています</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>翻訳した人物を記入しています</t>
+    <rPh sb="0" eb="2">
+      <t>ホンヤク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>翻訳した人物のNDL  Authoritiesのリソースへのリンクを記入しています</t>
+    <rPh sb="0" eb="2">
+      <t>ホンヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジンブツ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>翻訳者のリソース</t>
+    <rPh sb="0" eb="3">
+      <t>ホンヤクシャ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>翻訳書誌データ</t>
+    <rPh sb="0" eb="2">
+      <t>ホンヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショシ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>データ作成の底本に関する備考を記述しています。</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テイホン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>dc:publisher</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>翻訳の和歌のリソースにリンクしています</t>
+    <rPh sb="0" eb="2">
+      <t>ホンヤク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>翻訳データ</t>
+    <rPh sb="0" eb="2">
+      <t>ホンヤク</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>和歌翻訳のテキスト</t>
+    <rPh sb="0" eb="2">
+      <t>ワカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホンヤク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>英語ローマ字表記</t>
+    <rPh sb="0" eb="2">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>日本語の和歌のローマ字表記です</t>
+    <rPh sb="0" eb="3">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ワカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>翻訳した和歌の上の句部分を記入しています</t>
+    <rPh sb="0" eb="2">
+      <t>ホンヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ワカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>翻訳した和歌のテキスト本文を記入しています</t>
+    <rPh sb="0" eb="2">
+      <t>ホンヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ワカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホンブン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>翻訳した和歌の下の句部分を記入しています</t>
+    <rPh sb="0" eb="2">
+      <t>ホンヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ワカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シモ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>日本語の和歌のリソースへのリンクです</t>
+    <rPh sb="0" eb="3">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ワカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>歌人のリソースへのリンクです</t>
+    <rPh sb="0" eb="2">
+      <t>カジン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>歌人の名前を翻訳本に表記された言語で記入しています</t>
+    <rPh sb="0" eb="2">
+      <t>カジン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホンヤク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ボン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>翻訳者へのリンク</t>
+    <rPh sb="0" eb="3">
+      <t>ホンヤクシャ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>翻訳者をテキストで記入しています</t>
+    <rPh sb="0" eb="3">
+      <t>ホンヤクシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>翻訳者のリソースへのリンクです</t>
+    <rPh sb="0" eb="3">
+      <t>ホンヤクシャ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>翻訳の底本となった図書のタイトルです</t>
+    <rPh sb="0" eb="2">
+      <t>ホンヤク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイホン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トショ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>小倉百人一首の翻訳データ</t>
+    <rPh sb="7" eb="9">
+      <t>ホンヤク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>翻訳本のタイトル</t>
+    <rPh sb="0" eb="2">
+      <t>ホンヤク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ボン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>小倉百人一首の翻訳オープンデータリストの当該資料へのリンクです</t>
+    <rPh sb="7" eb="9">
+      <t>ホンヤク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>dcterms:source</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>翻訳の底本となった書誌データ（CiNii Books）へリンクしています。</t>
+    <rPh sb="0" eb="2">
+      <t>ホンヤク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイホン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショシ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>資料の作者・編者を記入しています。通常は藤原定家です</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>和歌のヨミのローマ字表記を記入しています</t>
+    <rPh sb="0" eb="2">
+      <t>ワカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>karuta:annotates</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>karuta:annotes</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
     <r>
       <t>a</t>
     </r>
@@ -968,693 +1653,8 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>nnotate</t>
+      <t>nnotates</t>
     </r>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>ver.3.0</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>dc:description</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>dc:description</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>和歌の全文です。表記は競技かるたの公式版によりました。</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>和歌のテキスト翻刻</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>karuta:annote</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>&lt;rdf:Property rdf:about="https://github.com/tnanako/karutalod/textOfYomi"&gt;</t>
-  </si>
-  <si>
-    <t>rdf:resource="https://github.com/tnanako/karutalod/ReadOut"</t>
-  </si>
-  <si>
-    <t>&lt;rdf:Property rdf:about="https://github.com/tnanako/karutalod/imageOfYomi"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;rdf:Property rdf:about="https://github.com/tnanako/karutalod/textOfTori"&gt;</t>
-  </si>
-  <si>
-    <t>rdf:resource="https://github.com/tnanako/karutalod/PickUPi"</t>
-  </si>
-  <si>
-    <t>rdf:resource="https://github.com/tnanako/karutalod/PickUP"</t>
-  </si>
-  <si>
-    <t>&lt;rdf:Property rdf:about="https://github.com/tnanako/karutalod/historicalTranscription"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;rdf:Property rdf:about="https://github.com/tnanako/karutalod/transcription"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;rdf:Property rdf:about="https://github.com/tnanako/karutalod/roamanTranscription"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;rdf:Property rdf:about="https://github.com/tnanako/karutalod/uniqueSyllable"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;rdf:Property rdf:about="https://github.com/tnanako/karutalod/firstHalf"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;rdf:Property rdf:about="https://github.com/tnanako/karutalod/transcriptionOfFirstHalf"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;rdf:Property rdf:about="https://github.com/tnanako/karutalod/secondHalf"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;rdf:Property rdf:about="https://github.com/tnanako/karutalod/transcriptionOfSecondHalf"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;rdf:Property rdf:about="https://github.com/tnanako/karutalod/bonze"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;rdf:Property rdf:about="https://github.com/tnanako/karutalod/initial"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;rdf:Property rdf:about="https://github.com/tnanako/karutalod/annotate"&gt;</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>かるたの解説・注釈をテキストで記入しています</t>
-    <rPh sb="4" eb="6">
-      <t>カイセツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>チュウシャク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>和歌のテキスト（全文）</t>
-    <rPh sb="0" eb="2">
-      <t>ワカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ゼンブン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>IIIF対応のため、小倉百人一首の語彙（赤字部分）を修正</t>
-    <rPh sb="4" eb="6">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>オグラ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒャクニン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イッシュ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ゴイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>アカジ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>多言語化に伴うdc:descriptionの定義の変更により、小倉百人一首・郷土かるたの語彙（青地部分）を修正</t>
-    <rPh sb="0" eb="4">
-      <t>タゲンゴカ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>トモナ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>オグラ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒャクニン</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>イッシュ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>キョウド</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ゴイ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>アオジ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>郷土かるたの語彙作成</t>
-    <rPh sb="0" eb="2">
-      <t>キョウド</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ゴイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>bf:translation</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>翻訳へのリンク</t>
-    <rPh sb="0" eb="2">
-      <t>ホンヤク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>翻訳された和歌のリソースへのリンクです</t>
-    <rPh sb="0" eb="2">
-      <t>ホンヤク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ワカ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>karuta:annotate</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>解説</t>
-    <rPh sb="0" eb="2">
-      <t>カイセツ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>解説・注釈のテキストを記入しています</t>
-    <rPh sb="0" eb="2">
-      <t>カイセツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>チュウシャク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>上の句</t>
-    <rPh sb="0" eb="1">
-      <t>カミ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>下の句</t>
-    <rPh sb="0" eb="1">
-      <t>シモ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>和歌リソース</t>
-    <rPh sb="0" eb="2">
-      <t>ワカ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>歌人</t>
-    <rPh sb="0" eb="2">
-      <t>カジン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>歌人へのリンク</t>
-    <rPh sb="0" eb="2">
-      <t>カジン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>karuta:romanTranscription</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>karuta:firstHalf</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>karuta:secondHalf</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>bibo:translationOf</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>dc:creator</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>dcterms:creator</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>bibo:translator</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>dcterms:contributor</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>dc:source</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>小倉百人一首の翻訳オープンデータリスト</t>
-    <rPh sb="7" eb="9">
-      <t>ホンヤク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>bibo:translator</t>
-  </si>
-  <si>
-    <t>dcterms:contributor</t>
-  </si>
-  <si>
-    <t>ラベル</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>タイトル</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>撰者</t>
-    <rPh sb="0" eb="2">
-      <t>センジャ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>翻訳者</t>
-    <rPh sb="0" eb="3">
-      <t>ホンヤクシャ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>出版社</t>
-    <rPh sb="0" eb="3">
-      <t>シュッパンシャ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>出版年</t>
-    <rPh sb="0" eb="2">
-      <t>シュッパン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ネン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>CiNiiBooksの書誌</t>
-    <rPh sb="11" eb="13">
-      <t>ショシ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>収録している和歌へのリンク</t>
-    <rPh sb="0" eb="2">
-      <t>シュウロク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ワカ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>言語と翻訳者を記入しています</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンゴ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ホンヤクシャ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>出版社を記入しています</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>出版年をリテラルで記入しています</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>翻訳した人物を記入しています</t>
-    <rPh sb="0" eb="2">
-      <t>ホンヤク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>翻訳した人物のNDL  Authoritiesのリソースへのリンクを記入しています</t>
-    <rPh sb="0" eb="2">
-      <t>ホンヤク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジンブツ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>翻訳者のリソース</t>
-    <rPh sb="0" eb="3">
-      <t>ホンヤクシャ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>翻訳書誌データ</t>
-    <rPh sb="0" eb="2">
-      <t>ホンヤク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショシ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>データ作成の底本に関する備考を記述しています。</t>
-    <rPh sb="3" eb="5">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>テイホン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キジュツ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>dc:publisher</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>翻訳の和歌のリソースにリンクしています</t>
-    <rPh sb="0" eb="2">
-      <t>ホンヤク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>翻訳データ</t>
-    <rPh sb="0" eb="2">
-      <t>ホンヤク</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>和歌翻訳のテキスト</t>
-    <rPh sb="0" eb="2">
-      <t>ワカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ホンヤク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>英語ローマ字表記</t>
-    <rPh sb="0" eb="2">
-      <t>エイゴ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウキ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>日本語の和歌のローマ字表記です</t>
-    <rPh sb="0" eb="3">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ワカ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウキ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>翻訳した和歌の上の句部分を記入しています</t>
-    <rPh sb="0" eb="2">
-      <t>ホンヤク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ワカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ブブン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>翻訳した和歌のテキスト本文を記入しています</t>
-    <rPh sb="0" eb="2">
-      <t>ホンヤク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ワカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ホンブン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>翻訳した和歌の下の句部分を記入しています</t>
-    <rPh sb="0" eb="2">
-      <t>ホンヤク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ワカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>シモ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ブブン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>日本語の和歌のリソースへのリンクです</t>
-    <rPh sb="0" eb="3">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ワカ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>歌人のリソースへのリンクです</t>
-    <rPh sb="0" eb="2">
-      <t>カジン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>歌人の名前を翻訳本に表記された言語で記入しています</t>
-    <rPh sb="0" eb="2">
-      <t>カジン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ホンヤク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ボン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウキ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ゲンゴ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>翻訳者へのリンク</t>
-    <rPh sb="0" eb="3">
-      <t>ホンヤクシャ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>翻訳者をテキストで記入しています</t>
-    <rPh sb="0" eb="3">
-      <t>ホンヤクシャ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>翻訳者のリソースへのリンクです</t>
-    <rPh sb="0" eb="3">
-      <t>ホンヤクシャ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>翻訳の底本となった図書のタイトルです</t>
-    <rPh sb="0" eb="2">
-      <t>ホンヤク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>テイホン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トショ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>小倉百人一首の翻訳データ</t>
-    <rPh sb="7" eb="9">
-      <t>ホンヤク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>翻訳本のタイトル</t>
-    <rPh sb="0" eb="2">
-      <t>ホンヤク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ボン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>小倉百人一首の翻訳オープンデータリストの当該資料へのリンクです</t>
-    <rPh sb="7" eb="9">
-      <t>ホンヤク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>dcterms:source</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>翻訳の底本となった書誌データ（CiNii Books）へリンクしています。</t>
-    <rPh sb="0" eb="2">
-      <t>ホンヤク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>テイホン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショシ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>資料の作者・編者を記入しています。通常は藤原定家です</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>和歌のヨミのローマ字表記を記入しています</t>
-    <rPh sb="0" eb="2">
-      <t>ワカ</t>
-    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -2311,8 +2311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="2" spans="1:7" ht="27">
       <c r="A2" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>148</v>
@@ -2364,12 +2364,12 @@
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27">
       <c r="A3" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>150</v>
@@ -2382,12 +2382,12 @@
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="40.5">
       <c r="A4" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>152</v>
@@ -2400,12 +2400,12 @@
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="27">
       <c r="A5" s="30" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>152</v>
@@ -2418,12 +2418,12 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15">
       <c r="A6" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>155</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>157</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>159</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>161</v>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="10" spans="1:7" ht="27">
       <c r="A10" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>163</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="11" spans="1:7" ht="27">
       <c r="A11" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>165</v>
@@ -2509,7 +2509,7 @@
     </row>
     <row r="12" spans="1:7" ht="27">
       <c r="A12" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>167</v>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="13" spans="1:7" ht="27">
       <c r="A13" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>169</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="14" spans="1:7" ht="27">
       <c r="A14" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>171</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>173</v>
@@ -2565,16 +2565,16 @@
     </row>
     <row r="16" spans="1:7" ht="16.5" customHeight="1">
       <c r="A16" s="31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>229</v>
+        <v>320</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>228</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E16" s="10"/>
     </row>
@@ -2977,8 +2977,8 @@
   </sheetPr>
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="A5:C5"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3009,13 +3009,13 @@
     </row>
     <row r="3" spans="1:4" ht="33.75" customHeight="1">
       <c r="A3" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>214</v>
@@ -3043,7 +3043,7 @@
         <v>73</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>214</v>
@@ -3303,13 +3303,13 @@
     </row>
     <row r="24" spans="1:4" ht="33.75" customHeight="1">
       <c r="A24" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="28" t="s">
         <v>258</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>260</v>
       </c>
       <c r="D24" s="34" t="s">
         <v>214</v>
@@ -3682,10 +3682,10 @@
     </row>
     <row r="56" spans="1:4" ht="33.75" customHeight="1">
       <c r="A56" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>119</v>
@@ -3794,13 +3794,13 @@
     </row>
     <row r="64" spans="1:4" ht="49.5" customHeight="1">
       <c r="A64" s="28" t="s">
-        <v>261</v>
+        <v>318</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>217</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="67" spans="1:4" ht="17.25">
       <c r="A67" s="35" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B67" s="36"/>
       <c r="C67" s="36"/>
@@ -3847,13 +3847,13 @@
         <v>3</v>
       </c>
       <c r="B69" s="42" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D69" s="34" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="33.75" customHeight="1">
@@ -3861,13 +3861,13 @@
         <v>86</v>
       </c>
       <c r="B70" s="42" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C70" s="28" t="s">
         <v>88</v>
       </c>
       <c r="D70" s="34" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="33.75" customHeight="1">
@@ -3875,55 +3875,55 @@
         <v>7</v>
       </c>
       <c r="B71" s="42" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D71" s="34" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="33.75" customHeight="1">
       <c r="A72" s="28" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B72" s="42" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C72" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="D72" s="34" t="s">
         <v>293</v>
-      </c>
-      <c r="D72" s="34" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="33.75" customHeight="1">
       <c r="A73" s="28" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B73" s="42" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D73" s="34" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="33.75" customHeight="1">
       <c r="A74" s="28" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B74" s="42" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D74" s="34" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="33.75" customHeight="1">
@@ -3931,27 +3931,27 @@
         <v>97</v>
       </c>
       <c r="B75" s="42" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D75" s="34" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="33.75" customHeight="1">
       <c r="A76" s="28" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B76" s="42" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D76" s="34" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="33.75" customHeight="1">
@@ -3959,13 +3959,13 @@
         <v>112</v>
       </c>
       <c r="B77" s="42" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D77" s="34" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="33.75" customHeight="1">
@@ -3973,13 +3973,13 @@
         <v>115</v>
       </c>
       <c r="B78" s="42" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D78" s="34" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="21.75" customHeight="1">
@@ -3990,7 +3990,7 @@
     </row>
     <row r="80" spans="1:4" ht="27.75" customHeight="1">
       <c r="A80" s="35" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B80" s="36"/>
       <c r="C80" s="36"/>
@@ -4012,142 +4012,142 @@
     </row>
     <row r="82" spans="1:4" ht="34.5" customHeight="1">
       <c r="A82" s="43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B82" s="43" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D82" s="44" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="34.5" customHeight="1">
       <c r="A83" s="43" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B83" s="43" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C83" s="43" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D83" s="44" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="34.5" customHeight="1">
       <c r="A84" s="43" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B84" s="43" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C84" s="43" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D84" s="44" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="34.5" customHeight="1">
       <c r="A85" s="43" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B85" s="43" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C85" s="43" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D85" s="44" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="34.5" customHeight="1">
       <c r="A86" s="44" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B86" s="44" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D86" s="44" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="34.5" customHeight="1">
       <c r="A87" s="44" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B87" s="44" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C87" s="43" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D87" s="44" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="34.5" customHeight="1">
       <c r="A88" s="44" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B88" s="44" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C88" s="43" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D88" s="44" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="34.5" customHeight="1">
       <c r="A89" s="44" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B89" s="44" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C89" s="43" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D89" s="44" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="34.5" customHeight="1">
       <c r="A90" s="44" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B90" s="44" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D90" s="44" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="34.5" customHeight="1">
       <c r="A91" s="44" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B91" s="44" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C91" s="43" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D91" s="44" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="34.5" customHeight="1">
@@ -4158,10 +4158,10 @@
         <v>128</v>
       </c>
       <c r="C92" s="43" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D92" s="44" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4237,7 +4237,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4330,7 +4330,7 @@
         <v>189</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>235</v>
+        <v>319</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>190</v>
@@ -4483,7 +4483,7 @@
         <v>218</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
@@ -4511,12 +4511,12 @@
         <v>219</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B5" s="20">
         <v>20190812</v>
@@ -4525,7 +4525,7 @@
         <v>219</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary/3.0/Karuta_voc_ver3.xlsx
+++ b/vocabulary/3.0/Karuta_voc_ver3.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="323">
   <si>
     <t>小倉百人一首かるたデータ</t>
   </si>
@@ -949,13 +949,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>解説</t>
-    <rPh sb="0" eb="2">
-      <t>カイセツ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>ver.3.0</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -1271,13 +1264,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>撰者</t>
-    <rPh sb="0" eb="2">
-      <t>センジャ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>翻訳者</t>
     <rPh sb="0" eb="3">
       <t>ホンヤクシャ</t>
@@ -1619,10 +1605,6 @@
     <rPh sb="9" eb="11">
       <t>ショシ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>資料の作者・編者を記入しています。通常は藤原定家です</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -1647,7 +1629,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="8"/>
+        <color theme="4"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
@@ -1657,12 +1639,53 @@
     </r>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>翻訳データ</t>
+    <rPh sb="0" eb="2">
+      <t>ホンヤク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>dc:title</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>翻訳された和歌のタイトルがある場合に記入しています</t>
+    <rPh sb="0" eb="2">
+      <t>ホンヤク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ワカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>解説・注釈</t>
+    <rPh sb="0" eb="2">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チュウシャク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1764,22 +1787,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1953,59 +1960,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2311,8 +2318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2351,7 +2358,7 @@
     </row>
     <row r="2" spans="1:7" ht="27">
       <c r="A2" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>148</v>
@@ -2364,12 +2371,12 @@
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27">
       <c r="A3" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>150</v>
@@ -2382,12 +2389,12 @@
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="40.5">
       <c r="A4" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>152</v>
@@ -2400,12 +2407,12 @@
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="27">
-      <c r="A5" s="30" t="s">
-        <v>237</v>
+      <c r="A5" s="28" t="s">
+        <v>236</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>152</v>
@@ -2418,12 +2425,12 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15">
       <c r="A6" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>155</v>
@@ -2439,7 +2446,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>157</v>
@@ -2453,7 +2460,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>159</v>
@@ -2467,7 +2474,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>161</v>
@@ -2481,7 +2488,7 @@
     </row>
     <row r="10" spans="1:7" ht="27">
       <c r="A10" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>163</v>
@@ -2495,7 +2502,7 @@
     </row>
     <row r="11" spans="1:7" ht="27">
       <c r="A11" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>165</v>
@@ -2509,7 +2516,7 @@
     </row>
     <row r="12" spans="1:7" ht="27">
       <c r="A12" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>167</v>
@@ -2523,7 +2530,7 @@
     </row>
     <row r="13" spans="1:7" ht="27">
       <c r="A13" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>169</v>
@@ -2537,7 +2544,7 @@
     </row>
     <row r="14" spans="1:7" ht="27">
       <c r="A14" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>171</v>
@@ -2549,9 +2556,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="33.75" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>173</v>
@@ -2563,18 +2570,18 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A16" s="31" t="s">
+    <row r="16" spans="1:7" ht="30" customHeight="1">
+      <c r="A16" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="D16" s="43" t="s">
         <v>250</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>251</v>
       </c>
       <c r="E16" s="10"/>
     </row>
@@ -2975,10 +2982,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3008,14 +3015,14 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>214</v>
@@ -3036,14 +3043,14 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>317</v>
+      <c r="C5" s="26" t="s">
+        <v>314</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>214</v>
@@ -3302,16 +3309,16 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="B24" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="C24" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="C24" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="32" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3681,11 +3688,11 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A56" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="B56" s="28" t="s">
-        <v>233</v>
+      <c r="A56" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>232</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>119</v>
@@ -3793,14 +3800,14 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A64" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="B64" s="28" t="s">
+      <c r="A64" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="C64" s="26" t="s">
         <v>259</v>
-      </c>
-      <c r="C64" s="28" t="s">
-        <v>260</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>217</v>
@@ -3821,352 +3828,362 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="17.25">
-      <c r="A67" s="35" t="s">
+      <c r="A67" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="35"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="37" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="33.75" customHeight="1">
+      <c r="A69" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="D69" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="33.75" customHeight="1">
+      <c r="A70" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="33.75" customHeight="1">
+      <c r="A71" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="B67" s="36"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="37"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="38" t="s">
+      <c r="B71" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="D71" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="33.75" customHeight="1">
+      <c r="A72" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="B72" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="D72" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="33.75" customHeight="1">
+      <c r="A73" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="B73" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="D73" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="33.75" customHeight="1">
+      <c r="A74" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="D74" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="33.75" customHeight="1">
+      <c r="A75" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="B75" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="D75" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="33.75" customHeight="1">
+      <c r="A76" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="D76" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="33.75" customHeight="1">
+      <c r="A77" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="D77" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A78" s="38"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="39"/>
+    </row>
+    <row r="79" spans="1:4" ht="27.75" customHeight="1">
+      <c r="A79" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="35"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="B80" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C80" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="39" t="s">
+      <c r="D80" s="37" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A69" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B69" s="42" t="s">
-        <v>278</v>
-      </c>
-      <c r="C69" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="D69" s="34" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A70" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="B70" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="C70" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D70" s="34" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A71" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="C71" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="D71" s="34" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A72" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="B72" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="C72" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="D72" s="34" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A73" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="B73" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="C73" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="D73" s="34" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A74" s="28" t="s">
+    <row r="81" spans="1:4" ht="34.5" customHeight="1">
+      <c r="A81" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="B81" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="C81" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="D81" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="B74" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="C74" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="D74" s="34" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A75" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B75" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="C75" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D75" s="34" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A76" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="B76" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="C76" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="D76" s="34" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A77" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="B77" s="42" t="s">
-        <v>285</v>
-      </c>
-      <c r="C77" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="D77" s="34" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A78" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="B78" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="C78" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="D78" s="34" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A79" s="40"/>
-      <c r="B79" s="40"/>
-      <c r="C79" s="40"/>
-      <c r="D79" s="41"/>
-    </row>
-    <row r="80" spans="1:4" ht="27.75" customHeight="1">
-      <c r="A80" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="B80" s="36"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="37"/>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="B81" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="C81" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" s="39" t="s">
-        <v>213</v>
-      </c>
     </row>
     <row r="82" spans="1:4" ht="34.5" customHeight="1">
-      <c r="A82" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="B82" s="43" t="s">
+      <c r="A82" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="B82" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="C82" s="41" t="s">
         <v>298</v>
       </c>
-      <c r="C82" s="43" t="s">
-        <v>302</v>
-      </c>
-      <c r="D82" s="44" t="s">
-        <v>297</v>
+      <c r="D82" s="42" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="34.5" customHeight="1">
       <c r="A83" s="43" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="B83" s="43" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="C83" s="43" t="s">
-        <v>300</v>
-      </c>
-      <c r="D83" s="44" t="s">
-        <v>297</v>
+        <v>250</v>
+      </c>
+      <c r="D83" s="42" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="34.5" customHeight="1">
       <c r="A84" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="B84" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="C84" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="D84" s="42" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="34.5" customHeight="1">
+      <c r="A85" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="B85" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="C85" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="D85" s="42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="34.5" customHeight="1">
+      <c r="A86" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="B84" s="43" t="s">
+      <c r="B86" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="C84" s="43" t="s">
+      <c r="C86" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="D84" s="44" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="34.5" customHeight="1">
-      <c r="A85" s="43" t="s">
+      <c r="D86" s="42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="34.5" customHeight="1">
+      <c r="A87" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="B85" s="43" t="s">
+      <c r="B87" s="42" t="s">
         <v>262</v>
       </c>
-      <c r="C85" s="43" t="s">
+      <c r="C87" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="D87" s="42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="34.5" customHeight="1">
+      <c r="A88" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="B88" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="C88" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="D88" s="42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="34.5" customHeight="1">
+      <c r="A89" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="B89" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="C89" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="D85" s="44" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="34.5" customHeight="1">
-      <c r="A86" s="44" t="s">
-        <v>269</v>
-      </c>
-      <c r="B86" s="44" t="s">
-        <v>263</v>
-      </c>
-      <c r="C86" s="43" t="s">
-        <v>304</v>
-      </c>
-      <c r="D86" s="44" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="34.5" customHeight="1">
-      <c r="A87" s="44" t="s">
-        <v>270</v>
-      </c>
-      <c r="B87" s="44" t="s">
-        <v>264</v>
-      </c>
-      <c r="C87" s="43" t="s">
+      <c r="D89" s="42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="34.5" customHeight="1">
+      <c r="A90" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="B90" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="C90" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="D87" s="44" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="34.5" customHeight="1">
-      <c r="A88" s="44" t="s">
-        <v>271</v>
-      </c>
-      <c r="B88" s="44" t="s">
-        <v>265</v>
-      </c>
-      <c r="C88" s="43" t="s">
+      <c r="D90" s="42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="34.5" customHeight="1">
+      <c r="A91" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="B91" s="42" t="s">
         <v>305</v>
       </c>
-      <c r="D88" s="44" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="34.5" customHeight="1">
-      <c r="A89" s="44" t="s">
-        <v>272</v>
-      </c>
-      <c r="B89" s="44" t="s">
-        <v>281</v>
-      </c>
-      <c r="C89" s="43" t="s">
+      <c r="C91" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="D91" s="42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="34.5" customHeight="1">
+      <c r="A92" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="B92" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="C92" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="D89" s="44" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="34.5" customHeight="1">
-      <c r="A90" s="44" t="s">
-        <v>273</v>
-      </c>
-      <c r="B90" s="44" t="s">
-        <v>307</v>
-      </c>
-      <c r="C90" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="D90" s="44" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="34.5" customHeight="1">
-      <c r="A91" s="44" t="s">
-        <v>274</v>
-      </c>
-      <c r="B91" s="44" t="s">
-        <v>312</v>
-      </c>
-      <c r="C91" s="43" t="s">
-        <v>310</v>
-      </c>
-      <c r="D91" s="44" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="34.5" customHeight="1">
-      <c r="A92" s="44" t="s">
+      <c r="D92" s="42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="34.5" customHeight="1">
+      <c r="A93" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="B92" s="44" t="s">
+      <c r="B93" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="C92" s="43" t="s">
-        <v>313</v>
-      </c>
-      <c r="D92" s="44" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="16"/>
-      <c r="D96"/>
+      <c r="C93" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D93" s="42" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="16"/>
@@ -4219,6 +4236,10 @@
     <row r="109" spans="1:4">
       <c r="A109" s="16"/>
       <c r="D109"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="16"/>
+      <c r="D110"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
@@ -4237,14 +4258,14 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.375" style="8" customWidth="1"/>
     <col min="2" max="2" width="40.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="52.875" style="28" customWidth="1"/>
     <col min="4" max="4" width="15.375" style="8" customWidth="1"/>
     <col min="5" max="16384" width="9" style="8"/>
   </cols>
@@ -4254,7 +4275,7 @@
         <v>176</v>
       </c>
       <c r="B1" s="11"/>
-      <c r="C1" s="32"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4">
@@ -4276,7 +4297,7 @@
       <c r="B3" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="31" t="s">
         <v>181</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -4290,7 +4311,7 @@
       <c r="B4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="31" t="s">
         <v>184</v>
       </c>
       <c r="D4" s="15" t="s">
@@ -4304,7 +4325,7 @@
       <c r="B5" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="31" t="s">
         <v>186</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -4318,7 +4339,7 @@
       <c r="B6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="31" t="s">
         <v>188</v>
       </c>
       <c r="D6" s="15" t="s">
@@ -4329,10 +4350,10 @@
       <c r="A7" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>190</v>
       </c>
       <c r="D7" s="15" t="s">
@@ -4346,7 +4367,7 @@
       <c r="B8" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="31" t="s">
         <v>193</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -4360,7 +4381,7 @@
       <c r="B9" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="31" t="s">
         <v>195</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -4374,7 +4395,7 @@
       <c r="B10" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="31" t="s">
         <v>198</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -4388,7 +4409,7 @@
       <c r="B11" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="31" t="s">
         <v>201</v>
       </c>
       <c r="D11" s="15" t="s">
@@ -4402,7 +4423,7 @@
       <c r="B12" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="31" t="s">
         <v>204</v>
       </c>
       <c r="D12" s="15" t="s">
@@ -4416,7 +4437,7 @@
       <c r="B13" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="31" t="s">
         <v>206</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -4430,7 +4451,7 @@
       <c r="B14" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="31" t="s">
         <v>209</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -4483,7 +4504,7 @@
         <v>218</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
@@ -4511,12 +4532,12 @@
         <v>219</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B5" s="20">
         <v>20190812</v>
@@ -4525,7 +4546,7 @@
         <v>219</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
